--- a/Частоты.xlsx
+++ b/Частоты.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professional\Desktop\python-dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professional\Desktop\python-dev\Data_Set_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAA9BBF-FF1B-45CE-BFAD-37AC0CCBC766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEE62AC-951E-4063-AAF5-C7BB9C518C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{838A653D-C896-4F07-A24E-5BF1EDF8A201}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="B2:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,8 +767,8 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <f>D5</f>
-        <v>50.166666666666664</v>
+        <f>H34</f>
+        <v>72.685075055735695</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -783,7 +783,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9">
         <f>(1-$K$4/$J$4*COS($L$4))/2*E12</f>
-        <v>19.977910256410254</v>
+        <v>28.945433351041821</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -798,7 +798,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <f>($J$4/$K$4/2)*(1-($K$4/$J$4*COS($L$4))^2)*E12</f>
-        <v>118.13090849274182</v>
+        <v>171.15655714678775</v>
       </c>
       <c r="F14" s="9"/>
     </row>
@@ -813,7 +813,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9">
         <f>$M$4/2*(1-$K$4/$J$4*COS($L$4))*E12</f>
-        <v>179.8011923076923</v>
+        <v>260.50890015937637</v>
       </c>
       <c r="F15" s="9"/>
       <c r="Q15" s="2"/>
@@ -838,7 +838,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9">
         <f>$M$4/2*(1+$K$4/$J$4*COS($L$4))*E12</f>
-        <v>271.69880769230764</v>
+        <v>393.65677534224477</v>
       </c>
       <c r="F16" s="9"/>
       <c r="Q16" s="2"/>
@@ -926,7 +926,7 @@
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="I19">
         <f>E15</f>
-        <v>179.8011923076923</v>
+        <v>260.50890015937637</v>
       </c>
       <c r="J19">
         <v>145.445126120124</v>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="I22">
         <f>E16</f>
-        <v>271.69880769230764</v>
+        <v>393.65677534224477</v>
       </c>
       <c r="J22">
         <v>242.405766644332</v>
@@ -1266,7 +1266,7 @@
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f>E13</f>
-        <v>19.977910256410254</v>
+        <v>28.945433351041821</v>
       </c>
       <c r="H31" s="1">
         <f>J20</f>
@@ -1285,7 +1285,7 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f>E12</f>
-        <v>50.166666666666664</v>
+        <v>72.685075055735695</v>
       </c>
       <c r="I33" s="1">
         <v>37.5</v>
@@ -1327,7 +1327,7 @@
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f>E14</f>
-        <v>118.13090849274182</v>
+        <v>171.15655714678775</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <f>E15</f>
-        <v>179.8011923076923</v>
+        <v>260.50890015937637</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <f>E16</f>
-        <v>271.69880769230764</v>
+        <v>393.65677534224477</v>
       </c>
     </row>
   </sheetData>
